--- a/biology/Zoologie/Leptocorisa/Leptocorisa.xlsx
+++ b/biology/Zoologie/Leptocorisa/Leptocorisa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptocorisa est un genre d'insectes Hémiptères Heteroptera de la famille des Alydidae. Il y a environ dix-sept espèces décrites dans le genre Leptocorisa. Elles se rencontrent en Asie du sud et est et en Océanie.
 </t>
@@ -511,9 +523,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit et publié par Latreille en 1829[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit et publié par Latreille en 1829
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a dix-sept espèces dans le genre Leptocorisa :
 Leptocorisa acuta (Thunberg, 1783)
@@ -561,7 +577,7 @@
 Leptocorisa sakdapolrakae Ahmad, 1965
 Leptocorisa solomonensis Ahmad, 1965
 Leptocorisa tagalica Ahmad, 1965
-Leptocorisa timorensis Van Doesburg &amp; Siwi, 1983[2],[3]
+Leptocorisa timorensis Van Doesburg &amp; Siwi, 1983,
 </t>
         </is>
       </c>
@@ -590,7 +606,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Latreille, P.A. (1829). Le règne animal distribué d'après son organisation, pour servir de base a l'histoire naturelle des animaux et d'introduction a l'anatomie comparée, Nouvelle Édition, Revue et Augmentée. Tome V, Suite et fin des insectes. Déterville, Paris, xxiv+556 pp.</t>
         </is>
